--- a/output.xlsx
+++ b/output.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTZK0M\Documents\Projets R\Projets MTS\Packages\rjduniverse\test\RJD3_development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YWYD5I\Documents\00_RJD3_Developpement\RJD3_development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11B8A0C6-8081-4749-8334-DC337486A63C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFD13D0-85BF-436D-B013-910C85AB5069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Series" sheetId="1" r:id="rId1"/>
     <sheet name="Diag" sheetId="2" r:id="rId2"/>
     <sheet name="Param" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Diag!$A$1:$C$173</definedName>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="307">
   <si>
     <t>Code</t>
   </si>
@@ -277,9 +279,6 @@
   </si>
   <si>
     <t>Seasonal-Irregular produced by the decomposition</t>
-  </si>
-  <si>
-    <t>For X-13ARIMA-SEATS only. Series from the X-11 decomposition (x = a, b, c, d, e; y=a1...)</t>
   </si>
   <si>
     <t>Benchmarked seasonally adjusted series</t>
@@ -5141,20 +5140,28 @@
       </rPr>
       <t>target</t>
     </r>
+  </si>
+  <si>
+    <t>Meaning (based on "old doc")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code (from old doc) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DETAIL to add </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code from X13 full dico </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5215,13 +5222,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5543,28 +5550,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="89.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>302</v>
+      </c>
+      <c r="C1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5572,55 +5587,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -5628,7 +5643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -5636,31 +5651,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -5668,15 +5683,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -5686,7 +5701,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>22</v>
@@ -5702,7 +5717,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>25</v>
@@ -5718,7 +5733,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>28</v>
@@ -5734,7 +5749,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>31</v>
@@ -5750,7 +5765,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>34</v>
@@ -5766,7 +5781,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>37</v>
@@ -5782,7 +5797,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>40</v>
@@ -5798,7 +5813,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -5814,7 +5829,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
@@ -5830,7 +5845,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>49</v>
@@ -5838,7 +5853,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>50</v>
@@ -5846,7 +5861,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>51</v>
@@ -5854,7 +5869,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>52</v>
@@ -5862,7 +5877,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>53</v>
@@ -5870,7 +5885,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>54</v>
@@ -5878,7 +5893,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>55</v>
@@ -5894,7 +5909,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>58</v>
@@ -5902,7 +5917,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>59</v>
@@ -5910,7 +5925,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>60</v>
@@ -5918,7 +5933,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>61</v>
@@ -5926,7 +5941,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>62</v>
@@ -5934,7 +5949,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>63</v>
@@ -5942,7 +5957,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>64</v>
@@ -5950,15 +5965,15 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" ht="30">
       <c r="A51" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>66</v>
@@ -5966,7 +5981,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>67</v>
@@ -5974,7 +5989,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>68</v>
@@ -5990,15 +6005,15 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" ht="30">
       <c r="A56" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>72</v>
@@ -6006,7 +6021,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>73</v>
@@ -6014,7 +6029,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>74</v>
@@ -6022,15 +6037,15 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" ht="30">
       <c r="A60" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>76</v>
@@ -6038,7 +6053,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>77</v>
@@ -6046,7 +6061,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>78</v>
@@ -6054,15 +6069,15 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" ht="30">
       <c r="A64" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>80</v>
@@ -6070,7 +6085,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>81</v>
@@ -6078,26 +6093,26 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>82</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -6107,11 +6122,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6130,697 +6145,697 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30">
       <c r="A32" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30">
       <c r="A33" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30">
       <c r="A34" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30">
       <c r="A35" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="B69" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="B70" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="B72" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="B73" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="B75" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="B76" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="B78" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="B79" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="B88" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="B89" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6829,7 +6844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6840,4 +6855,28 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBD8972-E518-4CD0-A319-E95B5BB28966}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EBCFBD-05B2-4E50-9DD4-DA8BDE078CAD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>